--- a/Mappings/Wound - STU3.xlsx
+++ b/Mappings/Wound - STU3.xlsx
@@ -21,12 +21,12 @@
     <sheet name="WoundTypeCodelist" sheetId="12" r:id="rId12"/>
     <sheet name="Terms of Use" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="292">
   <si>
     <t>Subject</t>
   </si>
@@ -873,15 +873,6 @@
     <t>.code</t>
   </si>
   <si>
-    <t>.component.woundTissue.oncoUlcerList (codeableConcept)</t>
-  </si>
-  <si>
-    <t>.component.woundTissue.WCSCodeList (codeableConcept)</t>
-  </si>
-  <si>
-    <t>.component.woundInfection (codeableConcept)</t>
-  </si>
-  <si>
     <t>.component.woundMoistureCodelist (codeableConcept)</t>
   </si>
   <si>
@@ -907,13 +898,52 @@
 (extension, reference to BodySite Qualifier)</t>
   </si>
   <si>
-    <t>.drain (extension on extension-medicaldevice)</t>
-  </si>
-  <si>
     <t>.woundimage (extension, binary)</t>
   </si>
   <si>
     <t>.comment</t>
+  </si>
+  <si>
+    <t>.component.woundTissue.oncoUlcerList (slice, codeableConcept)</t>
+  </si>
+  <si>
+    <t>.component.woundTissue.WCSCodeList (slice, codeableConcept)</t>
+  </si>
+  <si>
+    <t>Not in effective[x], because effective[x] is for the datetime of the observation</t>
+  </si>
+  <si>
+    <t>Valueset</t>
+  </si>
+  <si>
+    <t>Equivalence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We use code to define the observation. In .category we will use a more general snomed code to comprehend all types of wound, the hcim pressure ulcer and burnwound will have the same .category
+</t>
+  </si>
+  <si>
+    <t>HCIM
+Valueset is not fully compatible with .code..
+This is because in the valueset "Other" can be chosen, and in Code, "Other" isn't very pretty. If some ever searches all instances with code "other" then instances with this profile will pop up.. This isn't useful to anybody.</t>
+  </si>
+  <si>
+    <t>.component.woundInfection (codeableBoolean)</t>
+  </si>
+  <si>
+    <t>.component.woundEdge (codeableConcept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.woundDrain.valueReference.device.type, where
+• .woundDrain.valueReference.device (profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDeviceProduct-WoundDrain)
+--&gt; (derived from profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDeviceProduct)
+</t>
+  </si>
+  <si>
+    <t>.woundDrain, where:
+• .woundDrain (extension http://nictiz.nl/fhir/StructureDefinition/extension-medicaldevice)
+• .woundDrain.valueReference (profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDevice-WoundDrain)
+--&gt; (derived from profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDevice)</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1082,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1099,9 +1129,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1110,6 +1137,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1664,15 +1700,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
@@ -1804,15 +1840,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
@@ -1898,7 +1934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1910,15 +1948,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
@@ -2144,10 +2182,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
@@ -2357,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R20"/>
+  <dimension ref="B2:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2371,15 +2409,16 @@
     <col min="9" max="10" width="5" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="75" customWidth="1"/>
+    <col min="13" max="13" width="37.85546875" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="15" max="15" width="30" customWidth="1"/>
-    <col min="16" max="16" width="34.5703125" customWidth="1"/>
-    <col min="17" max="17" width="30" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="16" max="16" width="80" customWidth="1"/>
+    <col min="17" max="18" width="34.5703125" customWidth="1"/>
+    <col min="19" max="19" width="30" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:20">
       <c r="B2" s="5" t="s">
         <v>55</v>
       </c>
@@ -2415,14 +2454,20 @@
       <c r="P2" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="25.5">
+    <row r="3" spans="2:20" ht="25.5">
       <c r="B3" s="8" t="s">
         <v>70</v>
       </c>
@@ -2447,13 +2492,15 @@
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="2:18">
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="2:20" ht="127.5">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>75</v>
@@ -2484,13 +2531,19 @@
       <c r="O4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="2:18" ht="25.5">
+      <c r="Q4" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="2:20">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>83</v>
@@ -2499,58 +2552,66 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="16"/>
+      <c r="N5" s="20"/>
       <c r="O5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P5" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="16"/>
-    </row>
-    <row r="6" spans="2:18" ht="25.5">
+      <c r="P5" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="20"/>
+    </row>
+    <row r="6" spans="2:20" ht="25.5">
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
       <c r="O6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P6" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="16"/>
-    </row>
-    <row r="7" spans="2:18" ht="38.25">
+      <c r="P6" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="20"/>
+    </row>
+    <row r="7" spans="2:20" ht="38.25">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
         <v>90</v>
@@ -2581,13 +2642,15 @@
         <v>95</v>
       </c>
       <c r="O7" s="2"/>
-      <c r="P7" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="2:18" ht="38.25">
+      <c r="P7" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="2:20" ht="38.25">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
         <v>96</v>
@@ -2620,13 +2683,17 @@
       <c r="O8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P8" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="2:18" ht="38.25">
+      <c r="P8" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="2:20" ht="38.25">
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
         <v>102</v>
@@ -2659,13 +2726,17 @@
       <c r="O9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="P9" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="2:18" ht="38.25">
+      <c r="P9" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="2:20" ht="38.25">
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
         <v>108</v>
@@ -2692,17 +2763,19 @@
       <c r="M10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="17" t="s">
         <v>113</v>
       </c>
       <c r="O10" s="2"/>
-      <c r="P10" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="2:18" ht="38.25">
+      <c r="P10" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="2:20" ht="38.25">
       <c r="B11" s="11"/>
       <c r="C11" s="12" t="s">
         <v>114</v>
@@ -2733,13 +2806,15 @@
         <v>118</v>
       </c>
       <c r="O11" s="2"/>
-      <c r="P11" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="2:18" ht="38.25">
+      <c r="P11" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="2:20" ht="38.25">
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
         <v>119</v>
@@ -2770,13 +2845,15 @@
         <v>123</v>
       </c>
       <c r="O12" s="2"/>
-      <c r="P12" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="2:18" ht="25.5">
+      <c r="P12" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="2:20" ht="25.5">
       <c r="B13" s="11"/>
       <c r="C13" s="12" t="s">
         <v>124</v>
@@ -2809,13 +2886,17 @@
       <c r="O13" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="P13" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="2:18" ht="38.25">
+      <c r="P13" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="18"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="2:20" ht="38.25">
       <c r="B14" s="11"/>
       <c r="C14" s="12" t="s">
         <v>130</v>
@@ -2848,13 +2929,17 @@
       <c r="O14" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="P14" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="2:18">
+      <c r="P14" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="18"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="2:20" ht="38.25">
       <c r="B15" s="11"/>
       <c r="C15" s="12" t="s">
         <v>136</v>
@@ -2883,13 +2968,17 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="19" t="s">
-        <v>278</v>
+      <c r="P15" s="18" t="s">
+        <v>275</v>
       </c>
       <c r="Q15" s="18"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="2:18" ht="25.5">
+      <c r="R15" s="18"/>
+      <c r="S15" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="2:20" ht="25.5">
       <c r="B16" s="11"/>
       <c r="C16" s="12" t="s">
         <v>141</v>
@@ -2918,13 +3007,15 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="2:18" ht="38.25">
+      <c r="P16" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="2:20" ht="63.75">
       <c r="B17" s="11"/>
       <c r="C17" s="12" t="s">
         <v>145</v>
@@ -2955,13 +3046,15 @@
       <c r="O17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="P17" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="2:18">
+      <c r="P17" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="2:20" ht="63.75">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -2990,11 +3083,17 @@
       <c r="O18" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="2:18">
+      <c r="P18" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="2:20">
       <c r="B19" s="11"/>
       <c r="C19" s="12" t="s">
         <v>157</v>
@@ -3023,13 +3122,15 @@
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="2:18" ht="25.5">
+      <c r="P19" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="2:20" ht="25.5">
       <c r="B20" s="11"/>
       <c r="C20" s="12" t="s">
         <v>163</v>
@@ -3060,17 +3161,19 @@
         <v>168</v>
       </c>
       <c r="O20" s="2"/>
-      <c r="P20" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="2"/>
+      <c r="P20" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="T5:T6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
@@ -3110,11 +3213,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:5">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3166,11 +3269,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:5">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3224,15 +3327,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
@@ -3364,15 +3467,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
@@ -3470,15 +3573,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">

--- a/Mappings/Wound - STU3.xlsx
+++ b/Mappings/Wound - STU3.xlsx
@@ -10,23 +10,24 @@
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
     <sheet name="Information Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Data" sheetId="4" r:id="rId4"/>
-    <sheet name="WoundAnatomicalLocationCodelist" sheetId="5" r:id="rId5"/>
-    <sheet name="WoundDrainTypeCodelist" sheetId="6" r:id="rId6"/>
-    <sheet name="WoundEdgeCodelist" sheetId="7" r:id="rId7"/>
-    <sheet name="WoundLateralityCodelist" sheetId="8" r:id="rId8"/>
-    <sheet name="WoundMoistureCodelist" sheetId="9" r:id="rId9"/>
-    <sheet name="WoundTissueOncoUlcerCodelist" sheetId="10" r:id="rId10"/>
-    <sheet name="WoundTissueWCSCodelist" sheetId="11" r:id="rId11"/>
-    <sheet name="WoundTypeCodelist" sheetId="12" r:id="rId12"/>
-    <sheet name="Terms of Use" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId4"/>
+    <sheet name="Data" sheetId="4" r:id="rId5"/>
+    <sheet name="WoundAnatomicalLocationCodelist" sheetId="5" r:id="rId6"/>
+    <sheet name="WoundDrainTypeCodelist" sheetId="6" r:id="rId7"/>
+    <sheet name="WoundEdgeCodelist" sheetId="7" r:id="rId8"/>
+    <sheet name="WoundLateralityCodelist" sheetId="8" r:id="rId9"/>
+    <sheet name="WoundMoistureCodelist" sheetId="9" r:id="rId10"/>
+    <sheet name="WoundTissueOncoUlcerCodelist" sheetId="10" r:id="rId11"/>
+    <sheet name="WoundTissueWCSCodelist" sheetId="11" r:id="rId12"/>
+    <sheet name="WoundTypeCodelist" sheetId="12" r:id="rId13"/>
+    <sheet name="Terms of Use" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="311">
   <si>
     <t>Subject</t>
   </si>
@@ -945,12 +946,70 @@
 • .woundDrain.valueReference (profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDevice-WoundDrain)
 --&gt; (derived from profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDevice)</t>
   </si>
+  <si>
+    <t>Checkbox searched for existing profiles / implementation on:</t>
+  </si>
+  <si>
+    <t>Checkbox!</t>
+  </si>
+  <si>
+    <t>Searchwords</t>
+  </si>
+  <si>
+    <t>Found results:</t>
+  </si>
+  <si>
+    <t>Relevance:</t>
+  </si>
+  <si>
+    <t>HL7 FHIR Specification</t>
+  </si>
+  <si>
+    <t>HL7 FHIR profiles</t>
+  </si>
+  <si>
+    <t>HL7 FHIR profiles - latest version latest version (build)</t>
+  </si>
+  <si>
+    <t>HL7 FHIR extension registry</t>
+  </si>
+  <si>
+    <t>HL7 FHIR extension registry - latest version (build)</t>
+  </si>
+  <si>
+    <t>HL7 FHIR implementation guides (e.g. Argonaut)</t>
+  </si>
+  <si>
+    <t>Simplifier.net</t>
+  </si>
+  <si>
+    <t>Zulip (chat.fhir.org)</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google </t>
+  </si>
+  <si>
+    <t>wound</t>
+  </si>
+  <si>
+    <t>wound hl7 fhir</t>
+  </si>
+  <si>
+    <t>https://cimi.hl7.org/submissions/september_2018/skinwoundig/simplcimi/site/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIMI has a completely different approach to profiling as we do. CIMI sees every measurement as a seperate Observation. 
+For us, this is not useable. We are combining different measurements in one profile. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -991,6 +1050,18 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1079,10 +1150,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1147,8 +1219,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1159,6 +1241,126 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1268,6 +1470,1241 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14337" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14337"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14338" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14338"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14339" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14339"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14340" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14340"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14341" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14341"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14342" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14342"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14343" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14343"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14344" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14344"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14345" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14345"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14346" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14346"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14347" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14347"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14348" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14348"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14349" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14349"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14350" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14350"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14351" name="Check Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14351"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14352" name="Check Box 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14352"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14353" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14353"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14354" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14354"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14355" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14355"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14356" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14356"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14357" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14357"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14358" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14358"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14359" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14359"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14360" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14360"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14361" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14361"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14362" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14362"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14363" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14363"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14364" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14364"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14365" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14365"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14366" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14366"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1686,6 +3123,112 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7">
+      <c r="C3" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="25.5">
+      <c r="C5" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="25.5">
+      <c r="C6" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="25.5">
+      <c r="C7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D5:D7" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1824,7 +3367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G7"/>
   <sheetViews>
@@ -1930,7 +3473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G12"/>
   <sheetViews>
@@ -2123,7 +3666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
@@ -2394,10 +3937,791 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="75.5703125" customWidth="1"/>
+    <col min="5" max="5" width="71.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="O1" s="22"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="38.25">
+      <c r="A10" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14337" r:id="rId4" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14338" r:id="rId5" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14339" r:id="rId6" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14340" r:id="rId7" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14341" r:id="rId8" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14342" r:id="rId9" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14343" r:id="rId10" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14344" r:id="rId11" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14345" r:id="rId12" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14346" r:id="rId13" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14347" r:id="rId14" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14348" r:id="rId15" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14349" r:id="rId16" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14350" r:id="rId17" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14351" r:id="rId18" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14352" r:id="rId19" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14353" r:id="rId20" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14354" r:id="rId21" name="Check Box 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14355" r:id="rId22" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14356" r:id="rId23" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14357" r:id="rId24" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14358" r:id="rId25" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14359" r:id="rId26" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14360" r:id="rId27" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14361" r:id="rId28" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14362" r:id="rId29" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14363" r:id="rId30" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14364" r:id="rId31" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14365" r:id="rId32" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14366" r:id="rId33" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -3199,7 +5523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E5"/>
   <sheetViews>
@@ -3255,7 +5579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E5"/>
   <sheetViews>
@@ -3311,7 +5635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G9"/>
   <sheetViews>
@@ -3447,112 +5771,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D5:D9" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="32" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:7">
-      <c r="C3" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7">
-      <c r="C5" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7">
-      <c r="C6" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="C7" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="D5:D7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3574,11 +5792,11 @@
   <sheetData>
     <row r="3" spans="3:7">
       <c r="C3" s="19" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -3600,55 +5818,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="25.5">
+    <row r="5" spans="3:7">
       <c r="C5" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" ht="25.5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
       <c r="C6" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" ht="25.5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
       <c r="C7" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Mappings/Wound - STU3.xlsx
+++ b/Mappings/Wound - STU3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edelman\Nictiz-STU3-Zib2017\Mappings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C211A7DD-6C35-4E72-A3C3-F6C61A89078C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="13995" activeTab="3"/>
+    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="13995" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -451,6 +457,7 @@
         <i/>
         <sz val="10"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>e.g.</t>
     </r>
@@ -458,6 +465,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> left</t>
     </r>
@@ -877,29 +885,7 @@
     <t>.component.woundMoistureCodelist (codeableConcept)</t>
   </si>
   <si>
-    <t>.component.woundLength (ucum)</t>
-  </si>
-  <si>
-    <t>.component.woundWith (ucum)</t>
-  </si>
-  <si>
-    <t>.component.dateOfLastDressingChange(datetime)</t>
-  </si>
-  <si>
-    <t>.component.onsetDateTime</t>
-  </si>
-  <si>
-    <t>.component.woundDepth (ucum)</t>
-  </si>
-  <si>
     <t>.bodySite</t>
-  </si>
-  <si>
-    <t>.bodySite.Laterality 
-(extension, reference to BodySite Qualifier)</t>
-  </si>
-  <si>
-    <t>.woundimage (extension, binary)</t>
   </si>
   <si>
     <t>.comment</t>
@@ -927,9 +913,6 @@
     <t>HCIM
 Valueset is not fully compatible with .code..
 This is because in the valueset "Other" can be chosen, and in Code, "Other" isn't very pretty. If some ever searches all instances with code "other" then instances with this profile will pop up.. This isn't useful to anybody.</t>
-  </si>
-  <si>
-    <t>.component.woundInfection (codeableBoolean)</t>
   </si>
   <si>
     <t>.component.woundEdge (codeableConcept)</t>
@@ -1004,12 +987,38 @@
     <t xml:space="preserve">CIMI has a completely different approach to profiling as we do. CIMI sees every measurement as a seperate Observation. 
 For us, this is not useable. We are combining different measurements in one profile. </t>
   </si>
+  <si>
+    <t>.component.woundInfection (boolean)</t>
+  </si>
+  <si>
+    <t>.component.woundLength (quantity, ucum)</t>
+  </si>
+  <si>
+    <t>.component.woundWith (quantity, ucum)</t>
+  </si>
+  <si>
+    <t>.component.woundDepth (quantity, ucum)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.bodySite.Laterality.valueCodeableConcept.code, where: 
+- .bodySite.Laterality (extension http://nictiz.nl/fhir/StructureDefinition/BodySite-Qualifier)
+</t>
+  </si>
+  <si>
+    <t>.component.onsetDateTime (datetime)</t>
+  </si>
+  <si>
+    <t>.component.dateOfLastDressingChange (datetime)</t>
+  </si>
+  <si>
+    <t>.woundImage (extension, binary)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -1019,28 +1028,33 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1058,6 +1072,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1154,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1210,12 +1225,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1228,16 +1237,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1375,7 +1396,13 @@
     <xdr:ext cx="2856900" cy="618995"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1410,7 +1437,13 @@
     <xdr:ext cx="1428750" cy="504825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1445,7 +1478,13 @@
     <xdr:ext cx="10467975" cy="6762750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1497,11 +1536,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14337"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1509,6 +1551,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1538,11 +1603,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14338"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1550,6 +1618,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1579,11 +1670,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14339"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1591,6 +1685,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1620,11 +1737,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14340"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1632,6 +1752,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1661,11 +1804,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14341"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1673,6 +1819,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1702,11 +1871,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14342"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1714,6 +1886,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1743,11 +1938,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14343"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1755,6 +1953,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1784,11 +2005,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14344"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1796,6 +2020,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1825,11 +2072,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14345"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1837,6 +2087,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1866,11 +2139,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14346"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1878,6 +2154,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1907,11 +2206,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14347"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1919,6 +2221,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1948,11 +2273,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14348"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1960,6 +2288,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1989,11 +2340,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14349"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2001,6 +2355,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2030,11 +2407,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14350"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2042,6 +2422,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2071,11 +2474,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14351"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2083,6 +2489,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2112,11 +2541,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14352"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2124,6 +2556,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2153,11 +2608,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14353"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2165,6 +2623,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2194,11 +2675,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14354"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2206,6 +2690,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2235,11 +2742,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14355"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2247,6 +2757,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2276,11 +2809,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14356"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2288,6 +2824,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2317,11 +2876,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14357"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2329,6 +2891,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2358,11 +2943,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14358"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2370,6 +2958,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2399,11 +3010,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14359"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2411,6 +3025,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2440,11 +3077,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14360"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2452,6 +3092,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2481,11 +3144,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14361"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2493,6 +3159,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2522,11 +3211,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14362"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2534,6 +3226,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2563,11 +3278,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14363"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2575,6 +3293,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2604,11 +3345,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14364"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2616,6 +3360,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2645,11 +3412,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14365"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2657,6 +3427,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2686,11 +3479,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14366"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E380000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2698,6 +3494,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2709,7 +3528,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2751,7 +3570,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2784,9 +3603,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2819,6 +3655,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2994,18 +3847,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3013,7 +3866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3021,7 +3874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3029,7 +3882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -3037,7 +3890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -3045,7 +3898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -3053,7 +3906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -3061,7 +3914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3069,7 +3922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -3077,7 +3930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -3085,7 +3938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="127.5">
+    <row r="12" spans="2:3" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>55</v>
       </c>
@@ -3093,7 +3946,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="38.25">
+    <row r="13" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
@@ -3101,7 +3954,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="242.25">
+    <row r="14" spans="2:3" ht="242.25" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
@@ -3111,7 +3964,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3122,12 +3975,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="C3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -3136,18 +3989,18 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7">
-      <c r="C3" s="19" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="3:7">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
         <v>170</v>
       </c>
@@ -3164,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="25.5">
+    <row r="5" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>208</v>
       </c>
@@ -3181,7 +4034,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="25.5">
+    <row r="6" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>212</v>
       </c>
@@ -3198,7 +4051,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="25.5">
+    <row r="7" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>214</v>
       </c>
@@ -3228,12 +4081,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="C3:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -3242,18 +4095,18 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7">
-      <c r="C3" s="19" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="3:7">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
         <v>170</v>
       </c>
@@ -3270,7 +4123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="25.5">
+    <row r="5" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>217</v>
       </c>
@@ -3287,7 +4140,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="25.5">
+    <row r="6" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>221</v>
       </c>
@@ -3304,7 +4157,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="25.5">
+    <row r="7" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>223</v>
       </c>
@@ -3321,7 +4174,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="25.5">
+    <row r="8" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>225</v>
       </c>
@@ -3338,7 +4191,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="3:7" ht="25.5">
+    <row r="9" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>227</v>
       </c>
@@ -3368,12 +4221,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="C3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -3382,18 +4235,18 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7">
-      <c r="C3" s="19" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="3:7">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
         <v>170</v>
       </c>
@@ -3410,7 +4263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="25.5">
+    <row r="5" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>230</v>
       </c>
@@ -3427,7 +4280,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="25.5">
+    <row r="6" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>235</v>
       </c>
@@ -3444,7 +4297,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="25.5">
+    <row r="7" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>238</v>
       </c>
@@ -3474,14 +4327,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="C3:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -3490,18 +4343,18 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7">
-      <c r="C3" s="19" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="3:7">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
         <v>170</v>
       </c>
@@ -3518,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:7">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>242</v>
       </c>
@@ -3535,7 +4388,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>70</v>
       </c>
@@ -3552,7 +4405,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>247</v>
       </c>
@@ -3569,7 +4422,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="25.5">
+    <row r="8" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>250</v>
       </c>
@@ -3586,7 +4439,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>253</v>
       </c>
@@ -3603,7 +4456,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="3:7">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>256</v>
       </c>
@@ -3620,7 +4473,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="3:7">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>259</v>
       </c>
@@ -3637,7 +4490,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="3:7">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>192</v>
       </c>
@@ -3667,42 +4520,42 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="150" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="140.25">
+    <row r="3" spans="2:2" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="25.5">
+    <row r="5" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="38.25">
+    <row r="7" spans="2:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>266</v>
       </c>
@@ -3713,24 +4566,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="2:3">
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
@@ -3738,7 +4591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
@@ -3746,7 +4599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
@@ -3754,7 +4607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -3762,7 +4615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -3770,7 +4623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
@@ -3778,13 +4631,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3792,13 +4645,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
@@ -3806,13 +4659,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
@@ -3820,7 +4673,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
@@ -3828,7 +4681,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
@@ -3836,7 +4689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
@@ -3844,7 +4697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -3852,7 +4705,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
@@ -3860,7 +4713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -3868,7 +4721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>47</v>
       </c>
@@ -3876,7 +4729,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
@@ -3884,7 +4737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
@@ -3892,7 +4745,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>52</v>
       </c>
@@ -3900,7 +4753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
@@ -3920,14 +4773,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
     </row>
   </sheetData>
@@ -3937,14 +4790,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.5703125" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" customWidth="1"/>
@@ -3952,98 +4805,98 @@
     <col min="5" max="5" width="71.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="O1" s="20"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="22" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="22" t="s">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="D1" s="22" t="s">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="O1" s="22"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="23" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="23" t="s">
+    </row>
+    <row r="10" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="D3" s="23"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="D4" s="23"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="23" t="s">
+      <c r="C10" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="23" t="s">
+      <c r="D10" s="23" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="38.25">
-      <c r="A10" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="C10" t="s">
-        <v>308</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>310</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1"/>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -4718,14 +5571,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -4742,7 +5595,7 @@
     <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>55</v>
       </c>
@@ -4779,10 +5632,10 @@
         <v>267</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>268</v>
@@ -4791,7 +5644,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="25.5">
+    <row r="3" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>70</v>
       </c>
@@ -4824,7 +5677,7 @@
       <c r="S3" s="16"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="2:20" ht="127.5">
+    <row r="4" spans="2:20" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>75</v>
@@ -4859,15 +5712,15 @@
         <v>270</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="R4" s="17"/>
       <c r="S4" s="17" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>83</v>
@@ -4876,66 +5729,66 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="20"/>
+      <c r="N5" s="26"/>
       <c r="O5" s="3" t="s">
         <v>88</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="17" t="s">
         <v>2</v>
       </c>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
-      <c r="T5" s="20"/>
-    </row>
-    <row r="6" spans="2:20" ht="25.5">
+      <c r="T5" s="26"/>
+    </row>
+    <row r="6" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
       <c r="O6" s="3" t="s">
         <v>89</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Q6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
-      <c r="T6" s="20"/>
-    </row>
-    <row r="7" spans="2:20" ht="38.25">
+      <c r="T6" s="26"/>
+    </row>
+    <row r="7" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
         <v>90</v>
@@ -4967,14 +5820,14 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="17" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="2:20" ht="38.25">
+    <row r="8" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
         <v>96</v>
@@ -5017,7 +5870,7 @@
       <c r="S8" s="17"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="2:20" ht="38.25">
+    <row r="9" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
         <v>102</v>
@@ -5051,7 +5904,7 @@
         <v>107</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Q9" s="17" t="s">
         <v>2</v>
@@ -5060,7 +5913,7 @@
       <c r="S9" s="17"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="2:20" ht="38.25">
+    <row r="10" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
         <v>108</v>
@@ -5092,14 +5945,14 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="17" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="2:20" ht="38.25">
+    <row r="11" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
       <c r="C11" s="12" t="s">
         <v>114</v>
@@ -5131,14 +5984,14 @@
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="17" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="2:20" ht="38.25">
+    <row r="12" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
         <v>119</v>
@@ -5170,14 +6023,14 @@
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="17" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="2:20" ht="25.5">
+    <row r="13" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
       <c r="C13" s="12" t="s">
         <v>124</v>
@@ -5211,7 +6064,7 @@
         <v>129</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="18" t="s">
         <v>2</v>
@@ -5220,7 +6073,7 @@
       <c r="S13" s="17"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="2:20" ht="38.25">
+    <row r="14" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
       <c r="C14" s="12" t="s">
         <v>130</v>
@@ -5253,8 +6106,8 @@
       <c r="O14" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="P14" s="18" t="s">
-        <v>278</v>
+      <c r="P14" s="27" t="s">
+        <v>307</v>
       </c>
       <c r="Q14" s="18" t="s">
         <v>2</v>
@@ -5263,7 +6116,7 @@
       <c r="S14" s="17"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="2:20" ht="38.25">
+    <row r="15" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="C15" s="12" t="s">
         <v>136</v>
@@ -5292,17 +6145,17 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="18" t="s">
-        <v>275</v>
+      <c r="P15" s="27" t="s">
+        <v>308</v>
       </c>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="17" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="2:20" ht="25.5">
+    <row r="16" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
       <c r="C16" s="12" t="s">
         <v>141</v>
@@ -5332,14 +6185,14 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="17" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="2:20" ht="63.75">
+    <row r="17" spans="2:20" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
       <c r="C17" s="12" t="s">
         <v>145</v>
@@ -5370,15 +6223,15 @@
       <c r="O17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="P17" s="21" t="s">
-        <v>291</v>
+      <c r="P17" s="19" t="s">
+        <v>283</v>
       </c>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="2:20" ht="63.75">
+    <row r="18" spans="2:20" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -5407,8 +6260,8 @@
       <c r="O18" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P18" s="21" t="s">
-        <v>290</v>
+      <c r="P18" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="Q18" s="18" t="s">
         <v>2</v>
@@ -5417,7 +6270,7 @@
       <c r="S18" s="17"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="11"/>
       <c r="C19" s="12" t="s">
         <v>157</v>
@@ -5447,14 +6300,14 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="17" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="2:20" ht="25.5">
+    <row r="20" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="C20" s="12" t="s">
         <v>163</v>
@@ -5486,7 +6339,7 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="17" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
@@ -5505,15 +6358,15 @@
     <mergeCell ref="L5:L6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O4" location="WoundTypeCodelist!A1" display="WoundTypeCodelist"/>
-    <hyperlink ref="O5" location="WoundTissueOncoUlcerCodelist!A1" display="WoundTissueOncoUlcerCodelist"/>
-    <hyperlink ref="O6" location="WoundTissueWCSCodelist!A1" display="WoundTissueWCSCodelist"/>
-    <hyperlink ref="O8" location="WoundMoistureCodelist!A1" display="WoundMoistureCodelist"/>
-    <hyperlink ref="O9" location="WoundEdgeCodelist!A1" display="WoundEdgeCodelist"/>
-    <hyperlink ref="O13" location="WoundAnatomicalLocationCodelist!A1" display="WoundAnatomicalLocationCodelist"/>
-    <hyperlink ref="O14" location="WoundLateralityCodelist!A1" display="WoundLateralityCodelist"/>
-    <hyperlink ref="O17" r:id="rId1"/>
-    <hyperlink ref="O18" location="WoundDrainTypeCodelist!A1" display="WoundDrainTypeCodelist"/>
+    <hyperlink ref="O4" location="WoundTypeCodelist!A1" display="WoundTypeCodelist" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="O5" location="WoundTissueOncoUlcerCodelist!A1" display="WoundTissueOncoUlcerCodelist" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="O6" location="WoundTissueWCSCodelist!A1" display="WoundTissueWCSCodelist" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="O8" location="WoundMoistureCodelist!A1" display="WoundMoistureCodelist" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="O9" location="WoundEdgeCodelist!A1" display="WoundEdgeCodelist" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="O13" location="WoundAnatomicalLocationCodelist!A1" display="WoundAnatomicalLocationCodelist" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="O14" location="WoundLateralityCodelist!A1" display="WoundLateralityCodelist" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="O17" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="O18" location="WoundDrainTypeCodelist!A1" display="WoundDrainTypeCodelist" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -5524,28 +6377,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5">
-      <c r="C3" s="19" t="s">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
         <v>170</v>
       </c>
@@ -5556,7 +6409,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="38.25">
+    <row r="5" spans="3:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>173</v>
       </c>
@@ -5580,28 +6433,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5">
-      <c r="C3" s="19" t="s">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
         <v>170</v>
       </c>
@@ -5612,7 +6465,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="3:5">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>177</v>
       </c>
@@ -5636,12 +6489,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="C3:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -5650,18 +6503,18 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7">
-      <c r="C3" s="19" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="3:7">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
         <v>170</v>
       </c>
@@ -5678,7 +6531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:7">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>180</v>
       </c>
@@ -5695,7 +6548,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>183</v>
       </c>
@@ -5712,7 +6565,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>186</v>
       </c>
@@ -5729,7 +6582,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>189</v>
       </c>
@@ -5746,7 +6599,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>192</v>
       </c>
@@ -5776,12 +6629,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="C3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -5790,18 +6643,18 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7">
-      <c r="C3" s="19" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="3:7">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
         <v>170</v>
       </c>
@@ -5818,7 +6671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:7">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>198</v>
       </c>
@@ -5835,7 +6688,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>201</v>
       </c>
@@ -5852,7 +6705,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>204</v>
       </c>

--- a/Mappings/Wound - STU3.xlsx
+++ b/Mappings/Wound - STU3.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edelman\Nictiz-STU3-Zib2017\Mappings\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C211A7DD-6C35-4E72-A3C3-F6C61A89078C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="13995" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="13995" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="310">
   <si>
     <t>Subject</t>
   </si>
@@ -876,46 +870,21 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Observation</t>
-  </si>
-  <si>
     <t>.code</t>
   </si>
   <si>
-    <t>.component.woundMoistureCodelist (codeableConcept)</t>
-  </si>
-  <si>
     <t>.bodySite</t>
   </si>
   <si>
-    <t>.comment</t>
-  </si>
-  <si>
-    <t>.component.woundTissue.oncoUlcerList (slice, codeableConcept)</t>
-  </si>
-  <si>
-    <t>.component.woundTissue.WCSCodeList (slice, codeableConcept)</t>
-  </si>
-  <si>
-    <t>Not in effective[x], because effective[x] is for the datetime of the observation</t>
-  </si>
-  <si>
     <t>Valueset</t>
   </si>
   <si>
     <t>Equivalence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We use code to define the observation. In .category we will use a more general snomed code to comprehend all types of wound, the hcim pressure ulcer and burnwound will have the same .category
-</t>
   </si>
   <si>
     <t>HCIM
 Valueset is not fully compatible with .code..
 This is because in the valueset "Other" can be chosen, and in Code, "Other" isn't very pretty. If some ever searches all instances with code "other" then instances with this profile will pop up.. This isn't useful to anybody.</t>
-  </si>
-  <si>
-    <t>.component.woundEdge (codeableConcept)</t>
   </si>
   <si>
     <t xml:space="preserve">.woundDrain.valueReference.device.type, where
@@ -988,37 +957,59 @@
 For us, this is not useable. We are combining different measurements in one profile. </t>
   </si>
   <si>
-    <t>.component.woundInfection (boolean)</t>
-  </si>
-  <si>
-    <t>.component.woundLength (quantity, ucum)</t>
-  </si>
-  <si>
-    <t>.component.woundWith (quantity, ucum)</t>
-  </si>
-  <si>
-    <t>.component.woundDepth (quantity, ucum)</t>
-  </si>
-  <si>
     <t xml:space="preserve">.bodySite.Laterality.valueCodeableConcept.code, where: 
 - .bodySite.Laterality (extension http://nictiz.nl/fhir/StructureDefinition/BodySite-Qualifier)
 </t>
   </si>
   <si>
-    <t>.component.onsetDateTime (datetime)</t>
-  </si>
-  <si>
-    <t>.component.dateOfLastDressingChange (datetime)</t>
-  </si>
-  <si>
-    <t>.woundImage (extension, binary)</t>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Observation(woundObservable).component.woundTissue.oncoUlcerList (slice, codeableConcept)</t>
+  </si>
+  <si>
+    <t>Observation(woundObservable).component.woundTissue.WCSCodeList (slice, codeableConcept)</t>
+  </si>
+  <si>
+    <t>Observation(woundObservable).component.woundInfection (boolean)</t>
+  </si>
+  <si>
+    <t>Observation(woundObservable).component.woundMoistureCodelist (codeableConcept)</t>
+  </si>
+  <si>
+    <t>Observation(woundObservable).component.woundEdge (codeableConcept)</t>
+  </si>
+  <si>
+    <t>Observation(woundObservable).component.woundLength (quantity, ucum)</t>
+  </si>
+  <si>
+    <t>Observation(woundObservable).component.woundWith (quantity, ucum)</t>
+  </si>
+  <si>
+    <t>Observation(woundObservable).component.woundDepth (quantity, ucum)</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>.onsetDateTime (datetime)</t>
+  </si>
+  <si>
+    <t>.dateOfLastDressingChange (extension, datetime)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -1237,19 +1228,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1399,7 +1390,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1440,7 +1431,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,7 +1472,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1536,14 +1527,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14337"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1551,29 +1539,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1603,14 +1568,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14338"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1618,29 +1580,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1670,14 +1609,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14339"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1685,29 +1621,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1737,14 +1650,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14340"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1752,29 +1662,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1804,14 +1691,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14341"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1819,29 +1703,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1871,14 +1732,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14342"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1886,29 +1744,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1938,14 +1773,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14343"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1953,29 +1785,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2005,14 +1814,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14344"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2020,29 +1826,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2072,14 +1855,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14345"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2087,29 +1867,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2139,14 +1896,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14346"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2154,29 +1908,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2206,14 +1937,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14347"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2221,29 +1949,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2273,14 +1978,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14348"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2288,29 +1990,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2340,14 +2019,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14349"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2355,29 +2031,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2407,14 +2060,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14350"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2422,29 +2072,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2474,14 +2101,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14351"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2489,29 +2113,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2541,14 +2142,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14352"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2556,29 +2154,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2608,14 +2183,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14353"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2623,29 +2195,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2675,14 +2224,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14354"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2690,29 +2236,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2742,14 +2265,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14355"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2757,29 +2277,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2809,14 +2306,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14356"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2824,29 +2318,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2876,14 +2347,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14357"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2891,29 +2359,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2943,14 +2388,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14358"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2958,29 +2400,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3010,14 +2429,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14359"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3025,29 +2441,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3077,14 +2470,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14360"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3092,29 +2482,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3144,14 +2511,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14361"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3159,29 +2523,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3211,14 +2552,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14362"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3226,29 +2564,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3278,14 +2593,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14363"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3293,29 +2605,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3345,14 +2634,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14364"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3360,29 +2646,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3412,14 +2675,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14365"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3427,29 +2687,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3479,14 +2716,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14366"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E380000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3494,29 +2728,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3528,7 +2739,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3570,7 +2781,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3603,26 +2814,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3655,23 +2849,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3847,18 +3024,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3866,7 +3043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3874,7 +3051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3882,7 +3059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -3890,7 +3067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -3898,7 +3075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -3906,7 +3083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -3914,7 +3091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3922,7 +3099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -3930,7 +3107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -3938,7 +3115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" ht="127.5">
       <c r="B12" s="2" t="s">
         <v>55</v>
       </c>
@@ -3946,7 +3123,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" ht="38.25">
       <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
@@ -3954,7 +3131,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" ht="242.25">
       <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
@@ -3964,7 +3141,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3975,12 +3152,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -3989,18 +3166,18 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="25" t="s">
+    <row r="3" spans="3:7">
+      <c r="C3" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>170</v>
       </c>
@@ -4017,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:7" ht="25.5">
       <c r="C5" s="2" t="s">
         <v>208</v>
       </c>
@@ -4034,7 +3211,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:7" ht="25.5">
       <c r="C6" s="2" t="s">
         <v>212</v>
       </c>
@@ -4051,7 +3228,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:7" ht="25.5">
       <c r="C7" s="2" t="s">
         <v>214</v>
       </c>
@@ -4081,12 +3258,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -4095,18 +3272,18 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="25" t="s">
+    <row r="3" spans="3:7">
+      <c r="C3" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>170</v>
       </c>
@@ -4123,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:7" ht="25.5">
       <c r="C5" s="2" t="s">
         <v>217</v>
       </c>
@@ -4140,7 +3317,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:7" ht="25.5">
       <c r="C6" s="2" t="s">
         <v>221</v>
       </c>
@@ -4157,7 +3334,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:7" ht="25.5">
       <c r="C7" s="2" t="s">
         <v>223</v>
       </c>
@@ -4174,7 +3351,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:7" ht="25.5">
       <c r="C8" s="2" t="s">
         <v>225</v>
       </c>
@@ -4191,7 +3368,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:7" ht="25.5">
       <c r="C9" s="2" t="s">
         <v>227</v>
       </c>
@@ -4221,12 +3398,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -4235,18 +3412,18 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="25" t="s">
+    <row r="3" spans="3:7">
+      <c r="C3" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>170</v>
       </c>
@@ -4263,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:7" ht="25.5">
       <c r="C5" s="2" t="s">
         <v>230</v>
       </c>
@@ -4280,7 +3457,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:7" ht="25.5">
       <c r="C6" s="2" t="s">
         <v>235</v>
       </c>
@@ -4297,7 +3474,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:7" ht="25.5">
       <c r="C7" s="2" t="s">
         <v>238</v>
       </c>
@@ -4327,14 +3504,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -4343,18 +3520,18 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="25" t="s">
+    <row r="3" spans="3:7">
+      <c r="C3" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>170</v>
       </c>
@@ -4371,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:7">
       <c r="C5" s="2" t="s">
         <v>242</v>
       </c>
@@ -4388,7 +3565,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:7">
       <c r="C6" s="2" t="s">
         <v>70</v>
       </c>
@@ -4405,7 +3582,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:7">
       <c r="C7" s="2" t="s">
         <v>247</v>
       </c>
@@ -4422,7 +3599,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:7" ht="25.5">
       <c r="C8" s="2" t="s">
         <v>250</v>
       </c>
@@ -4439,7 +3616,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:7">
       <c r="C9" s="2" t="s">
         <v>253</v>
       </c>
@@ -4456,7 +3633,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:7">
       <c r="C10" s="2" t="s">
         <v>256</v>
       </c>
@@ -4473,7 +3650,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:7">
       <c r="C11" s="2" t="s">
         <v>259</v>
       </c>
@@ -4490,7 +3667,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:7">
       <c r="C12" s="2" t="s">
         <v>192</v>
       </c>
@@ -4520,42 +3697,42 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="150" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" ht="140.25">
       <c r="B3" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" ht="25.5">
       <c r="B5" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" ht="38.25">
       <c r="B7" s="2" t="s">
         <v>266</v>
       </c>
@@ -4566,24 +3743,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:3">
+      <c r="B2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="25"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="26"/>
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
@@ -4591,7 +3768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
@@ -4599,7 +3776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
@@ -4607,7 +3784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -4615,7 +3792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -4623,7 +3800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
@@ -4631,13 +3808,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
@@ -4645,13 +3822,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3">
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
@@ -4659,13 +3836,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3">
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3">
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
@@ -4673,7 +3850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3">
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
@@ -4681,7 +3858,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:3">
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
@@ -4689,7 +3866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3">
       <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
@@ -4697,7 +3874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -4705,7 +3882,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3">
       <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
@@ -4713,7 +3890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3">
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -4721,7 +3898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
         <v>47</v>
       </c>
@@ -4729,7 +3906,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3">
       <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
@@ -4737,7 +3914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3">
       <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
@@ -4745,7 +3922,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3">
       <c r="B24" s="2" t="s">
         <v>52</v>
       </c>
@@ -4753,7 +3930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
@@ -4773,14 +3950,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="2"/>
     </row>
   </sheetData>
@@ -4790,14 +3967,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="46.5703125" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" customWidth="1"/>
@@ -4805,98 +3982,98 @@
     <col min="5" max="5" width="71.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="20" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
       <c r="O1" s="20"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="21" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="21" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D3" s="21"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="21" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="21" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="21" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="21" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="21" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="21" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="22" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="38.25">
       <c r="A10" s="21" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -5571,14 +4748,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -5595,7 +4772,7 @@
     <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20">
       <c r="B2" s="5" t="s">
         <v>55</v>
       </c>
@@ -5632,10 +4809,10 @@
         <v>267</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>268</v>
@@ -5644,7 +4821,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" ht="38.25">
       <c r="B3" s="8" t="s">
         <v>70</v>
       </c>
@@ -5670,14 +4847,14 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="16" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="2:20" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" ht="127.5">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>75</v>
@@ -5709,18 +4886,18 @@
         <v>82</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="R4" s="17"/>
       <c r="S4" s="17" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>83</v>
@@ -5729,66 +4906,66 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="26"/>
+      <c r="N5" s="27"/>
       <c r="O5" s="3" t="s">
         <v>88</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="Q5" s="17" t="s">
         <v>2</v>
       </c>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
-      <c r="T5" s="26"/>
-    </row>
-    <row r="6" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="27"/>
+    </row>
+    <row r="6" spans="2:20" ht="30" customHeight="1">
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
       <c r="O6" s="3" t="s">
         <v>89</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="Q6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
-      <c r="T6" s="26"/>
-    </row>
-    <row r="7" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="T6" s="27"/>
+    </row>
+    <row r="7" spans="2:20" ht="38.25">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
         <v>90</v>
@@ -5820,14 +4997,14 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="17" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="38.25">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
         <v>96</v>
@@ -5861,7 +5038,7 @@
         <v>101</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="17" t="s">
         <v>2</v>
@@ -5870,7 +5047,7 @@
       <c r="S8" s="17"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" ht="38.25">
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
         <v>102</v>
@@ -5904,7 +5081,7 @@
         <v>107</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="Q9" s="17" t="s">
         <v>2</v>
@@ -5913,7 +5090,7 @@
       <c r="S9" s="17"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" ht="38.25">
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
         <v>108</v>
@@ -5945,14 +5122,14 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" ht="38.25">
       <c r="B11" s="11"/>
       <c r="C11" s="12" t="s">
         <v>114</v>
@@ -5984,14 +5161,14 @@
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" ht="38.25">
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
         <v>119</v>
@@ -6023,14 +5200,14 @@
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" ht="25.5">
       <c r="B13" s="11"/>
       <c r="C13" s="12" t="s">
         <v>124</v>
@@ -6064,7 +5241,7 @@
         <v>129</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="18" t="s">
         <v>2</v>
@@ -6073,7 +5250,7 @@
       <c r="S13" s="17"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" ht="38.25">
       <c r="B14" s="11"/>
       <c r="C14" s="12" t="s">
         <v>130</v>
@@ -6106,8 +5283,8 @@
       <c r="O14" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="P14" s="27" t="s">
-        <v>307</v>
+      <c r="P14" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="Q14" s="18" t="s">
         <v>2</v>
@@ -6116,7 +5293,7 @@
       <c r="S14" s="17"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20">
       <c r="B15" s="11"/>
       <c r="C15" s="12" t="s">
         <v>136</v>
@@ -6145,17 +5322,15 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="27" t="s">
+      <c r="P15" s="25" t="s">
         <v>308</v>
       </c>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
-      <c r="S15" s="17" t="s">
-        <v>276</v>
-      </c>
+      <c r="S15" s="17"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" ht="25.5">
       <c r="B16" s="11"/>
       <c r="C16" s="12" t="s">
         <v>141</v>
@@ -6192,7 +5367,7 @@
       <c r="S16" s="17"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="2:20" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" ht="63.75">
       <c r="B17" s="11"/>
       <c r="C17" s="12" t="s">
         <v>145</v>
@@ -6224,14 +5399,14 @@
         <v>151</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="2:20" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" ht="63.75">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -6261,7 +5436,7 @@
         <v>156</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="Q18" s="18" t="s">
         <v>2</v>
@@ -6270,7 +5445,7 @@
       <c r="S18" s="17"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20">
       <c r="B19" s="11"/>
       <c r="C19" s="12" t="s">
         <v>157</v>
@@ -6300,14 +5475,14 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="17" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" ht="25.5">
       <c r="B20" s="11"/>
       <c r="C20" s="12" t="s">
         <v>163</v>
@@ -6339,7 +5514,7 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="17" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
@@ -6358,15 +5533,15 @@
     <mergeCell ref="L5:L6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O4" location="WoundTypeCodelist!A1" display="WoundTypeCodelist" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="O5" location="WoundTissueOncoUlcerCodelist!A1" display="WoundTissueOncoUlcerCodelist" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="O6" location="WoundTissueWCSCodelist!A1" display="WoundTissueWCSCodelist" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="O8" location="WoundMoistureCodelist!A1" display="WoundMoistureCodelist" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="O9" location="WoundEdgeCodelist!A1" display="WoundEdgeCodelist" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="O13" location="WoundAnatomicalLocationCodelist!A1" display="WoundAnatomicalLocationCodelist" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="O14" location="WoundLateralityCodelist!A1" display="WoundLateralityCodelist" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="O17" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="O18" location="WoundDrainTypeCodelist!A1" display="WoundDrainTypeCodelist" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="O4" location="WoundTypeCodelist!A1" display="WoundTypeCodelist"/>
+    <hyperlink ref="O5" location="WoundTissueOncoUlcerCodelist!A1" display="WoundTissueOncoUlcerCodelist"/>
+    <hyperlink ref="O6" location="WoundTissueWCSCodelist!A1" display="WoundTissueWCSCodelist"/>
+    <hyperlink ref="O8" location="WoundMoistureCodelist!A1" display="WoundMoistureCodelist"/>
+    <hyperlink ref="O9" location="WoundEdgeCodelist!A1" display="WoundEdgeCodelist"/>
+    <hyperlink ref="O13" location="WoundAnatomicalLocationCodelist!A1" display="WoundAnatomicalLocationCodelist"/>
+    <hyperlink ref="O14" location="WoundLateralityCodelist!A1" display="WoundLateralityCodelist"/>
+    <hyperlink ref="O17" r:id="rId1"/>
+    <hyperlink ref="O18" location="WoundDrainTypeCodelist!A1" display="WoundDrainTypeCodelist"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -6377,28 +5552,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C3" s="25" t="s">
+    <row r="3" spans="3:5">
+      <c r="C3" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:5">
       <c r="C4" s="14" t="s">
         <v>170</v>
       </c>
@@ -6409,7 +5584,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:5" ht="38.25">
       <c r="C5" s="2" t="s">
         <v>173</v>
       </c>
@@ -6433,28 +5608,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C3" s="25" t="s">
+    <row r="3" spans="3:5">
+      <c r="C3" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:5">
       <c r="C4" s="14" t="s">
         <v>170</v>
       </c>
@@ -6465,7 +5640,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:5">
       <c r="C5" s="2" t="s">
         <v>177</v>
       </c>
@@ -6489,12 +5664,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -6503,18 +5678,18 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="25" t="s">
+    <row r="3" spans="3:7">
+      <c r="C3" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>170</v>
       </c>
@@ -6531,7 +5706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:7">
       <c r="C5" s="2" t="s">
         <v>180</v>
       </c>
@@ -6548,7 +5723,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:7">
       <c r="C6" s="2" t="s">
         <v>183</v>
       </c>
@@ -6565,7 +5740,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:7">
       <c r="C7" s="2" t="s">
         <v>186</v>
       </c>
@@ -6582,7 +5757,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:7">
       <c r="C8" s="2" t="s">
         <v>189</v>
       </c>
@@ -6599,7 +5774,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:7">
       <c r="C9" s="2" t="s">
         <v>192</v>
       </c>
@@ -6629,12 +5804,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -6643,18 +5818,18 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="25" t="s">
+    <row r="3" spans="3:7">
+      <c r="C3" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>170</v>
       </c>
@@ -6671,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:7">
       <c r="C5" s="2" t="s">
         <v>198</v>
       </c>
@@ -6688,7 +5863,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:7">
       <c r="C6" s="2" t="s">
         <v>201</v>
       </c>
@@ -6705,7 +5880,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:7">
       <c r="C7" s="2" t="s">
         <v>204</v>
       </c>

--- a/Mappings/Wound - STU3.xlsx
+++ b/Mappings/Wound - STU3.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="13995" activeTab="4"/>
+    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="13995" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
     <sheet name="Information Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId4"/>
+    <sheet name="Research" sheetId="14" r:id="rId4"/>
     <sheet name="Data" sheetId="4" r:id="rId5"/>
     <sheet name="WoundAnatomicalLocationCodelist" sheetId="5" r:id="rId6"/>
     <sheet name="WoundDrainTypeCodelist" sheetId="6" r:id="rId7"/>
@@ -1390,7 +1390,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1431,7 +1431,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1472,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3261,7 +3261,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3746,7 +3748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3971,7 +3975,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4751,8 +4755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Mappings/Wound - STU3.xlsx
+++ b/Mappings/Wound - STU3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="13995" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="13995" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -989,9 +989,6 @@
     <t>Observation(woundObservable).component.woundDepth (quantity, ucum)</t>
   </si>
   <si>
-    <t>Media</t>
-  </si>
-  <si>
     <t>.note</t>
   </si>
   <si>
@@ -1003,6 +1000,9 @@
   </si>
   <si>
     <t>.dateOfLastDressingChange (extension, datetime)</t>
+  </si>
+  <si>
+    <t>Observation(woundObservable).woundPhoto (extension)</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1390,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1431,7 +1431,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1472,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3027,7 +3027,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3510,7 +3512,7 @@
   <dimension ref="C3:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4755,8 +4757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4897,7 +4899,7 @@
       </c>
       <c r="R4" s="17"/>
       <c r="S4" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T4" s="2"/>
     </row>
@@ -5327,7 +5329,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
@@ -5364,7 +5366,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
@@ -5479,7 +5481,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="17" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
@@ -5518,7 +5520,7 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>

--- a/Mappings/Wound - STU3.xlsx
+++ b/Mappings/Wound - STU3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="13995" activeTab="4"/>
+    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="13995" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1390,7 +1390,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1431,7 +1431,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1472,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4757,8 +4757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="M13" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5617,7 +5617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>

--- a/Mappings/Wound - STU3.xlsx
+++ b/Mappings/Wound - STU3.xlsx
@@ -4,29 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="13995" activeTab="3"/>
+    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="13995" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
     <sheet name="Information Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Data" sheetId="4" r:id="rId4"/>
-    <sheet name="WoundAnatomicalLocationCodelist" sheetId="5" r:id="rId5"/>
-    <sheet name="WoundDrainTypeCodelist" sheetId="6" r:id="rId6"/>
-    <sheet name="WoundEdgeCodelist" sheetId="7" r:id="rId7"/>
-    <sheet name="WoundLateralityCodelist" sheetId="8" r:id="rId8"/>
-    <sheet name="WoundMoistureCodelist" sheetId="9" r:id="rId9"/>
-    <sheet name="WoundTissueOncoUlcerCodelist" sheetId="10" r:id="rId10"/>
-    <sheet name="WoundTissueWCSCodelist" sheetId="11" r:id="rId11"/>
-    <sheet name="WoundTypeCodelist" sheetId="12" r:id="rId12"/>
-    <sheet name="Terms of Use" sheetId="13" r:id="rId13"/>
+    <sheet name="Research" sheetId="14" r:id="rId4"/>
+    <sheet name="Data" sheetId="4" r:id="rId5"/>
+    <sheet name="WoundAnatomicalLocationCodelist" sheetId="5" r:id="rId6"/>
+    <sheet name="WoundDrainTypeCodelist" sheetId="6" r:id="rId7"/>
+    <sheet name="WoundEdgeCodelist" sheetId="7" r:id="rId8"/>
+    <sheet name="WoundLateralityCodelist" sheetId="8" r:id="rId9"/>
+    <sheet name="WoundMoistureCodelist" sheetId="9" r:id="rId10"/>
+    <sheet name="WoundTissueOncoUlcerCodelist" sheetId="10" r:id="rId11"/>
+    <sheet name="WoundTissueWCSCodelist" sheetId="11" r:id="rId12"/>
+    <sheet name="WoundTypeCodelist" sheetId="12" r:id="rId13"/>
+    <sheet name="Terms of Use" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="310">
   <si>
     <t>Subject</t>
   </si>
@@ -450,6 +451,7 @@
         <i/>
         <sz val="10"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>e.g.</t>
     </r>
@@ -457,6 +459,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> left</t>
     </r>
@@ -867,60 +870,146 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Observation</t>
-  </si>
-  <si>
     <t>.code</t>
   </si>
   <si>
-    <t>.component.woundTissue.oncoUlcerList (codeableConcept)</t>
-  </si>
-  <si>
-    <t>.component.woundTissue.WCSCodeList (codeableConcept)</t>
-  </si>
-  <si>
-    <t>.component.woundInfection (codeableConcept)</t>
-  </si>
-  <si>
-    <t>.component.woundMoistureCodelist (codeableConcept)</t>
-  </si>
-  <si>
-    <t>.component.woundLength (ucum)</t>
-  </si>
-  <si>
-    <t>.component.woundWith (ucum)</t>
-  </si>
-  <si>
-    <t>.component.dateOfLastDressingChange(datetime)</t>
-  </si>
-  <si>
-    <t>.component.onsetDateTime</t>
-  </si>
-  <si>
-    <t>.component.woundDepth (ucum)</t>
-  </si>
-  <si>
     <t>.bodySite</t>
   </si>
   <si>
-    <t>.bodySite.Laterality 
-(extension, reference to BodySite Qualifier)</t>
-  </si>
-  <si>
-    <t>.drain (extension on extension-medicaldevice)</t>
-  </si>
-  <si>
-    <t>.woundimage (extension, binary)</t>
-  </si>
-  <si>
-    <t>.comment</t>
+    <t>Valueset</t>
+  </si>
+  <si>
+    <t>Equivalence</t>
+  </si>
+  <si>
+    <t>HCIM
+Valueset is not fully compatible with .code..
+This is because in the valueset "Other" can be chosen, and in Code, "Other" isn't very pretty. If some ever searches all instances with code "other" then instances with this profile will pop up.. This isn't useful to anybody.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.woundDrain.valueReference.device.type, where
+• .woundDrain.valueReference.device (profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDeviceProduct-WoundDrain)
+--&gt; (derived from profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDeviceProduct)
+</t>
+  </si>
+  <si>
+    <t>.woundDrain, where:
+• .woundDrain (extension http://nictiz.nl/fhir/StructureDefinition/extension-medicaldevice)
+• .woundDrain.valueReference (profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDevice-WoundDrain)
+--&gt; (derived from profile http://nictiz.nl/fhir/StructureDefinition/zib-MedicalDevice)</t>
+  </si>
+  <si>
+    <t>Checkbox searched for existing profiles / implementation on:</t>
+  </si>
+  <si>
+    <t>Checkbox!</t>
+  </si>
+  <si>
+    <t>Searchwords</t>
+  </si>
+  <si>
+    <t>Found results:</t>
+  </si>
+  <si>
+    <t>Relevance:</t>
+  </si>
+  <si>
+    <t>HL7 FHIR Specification</t>
+  </si>
+  <si>
+    <t>HL7 FHIR profiles</t>
+  </si>
+  <si>
+    <t>HL7 FHIR profiles - latest version latest version (build)</t>
+  </si>
+  <si>
+    <t>HL7 FHIR extension registry</t>
+  </si>
+  <si>
+    <t>HL7 FHIR extension registry - latest version (build)</t>
+  </si>
+  <si>
+    <t>HL7 FHIR implementation guides (e.g. Argonaut)</t>
+  </si>
+  <si>
+    <t>Simplifier.net</t>
+  </si>
+  <si>
+    <t>Zulip (chat.fhir.org)</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google </t>
+  </si>
+  <si>
+    <t>wound</t>
+  </si>
+  <si>
+    <t>wound hl7 fhir</t>
+  </si>
+  <si>
+    <t>https://cimi.hl7.org/submissions/september_2018/skinwoundig/simplcimi/site/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIMI has a completely different approach to profiling as we do. CIMI sees every measurement as a seperate Observation. 
+For us, this is not useable. We are combining different measurements in one profile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">.bodySite.Laterality.valueCodeableConcept.code, where: 
+- .bodySite.Laterality (extension http://nictiz.nl/fhir/StructureDefinition/BodySite-Qualifier)
+</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Observation(woundObservable).component.woundTissue.oncoUlcerList (slice, codeableConcept)</t>
+  </si>
+  <si>
+    <t>Observation(woundObservable).component.woundTissue.WCSCodeList (slice, codeableConcept)</t>
+  </si>
+  <si>
+    <t>Observation(woundObservable).component.woundInfection (boolean)</t>
+  </si>
+  <si>
+    <t>Observation(woundObservable).component.woundMoistureCodelist (codeableConcept)</t>
+  </si>
+  <si>
+    <t>Observation(woundObservable).component.woundEdge (codeableConcept)</t>
+  </si>
+  <si>
+    <t>Observation(woundObservable).component.woundLength (quantity, ucum)</t>
+  </si>
+  <si>
+    <t>Observation(woundObservable).component.woundWith (quantity, ucum)</t>
+  </si>
+  <si>
+    <t>Observation(woundObservable).component.woundDepth (quantity, ucum)</t>
+  </si>
+  <si>
+    <t>.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>.onsetDateTime (datetime)</t>
+  </si>
+  <si>
+    <t>.dateOfLastDressingChange (extension, datetime)</t>
+  </si>
+  <si>
+    <t>Observation(woundObservable).woundPhoto (extension)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -930,28 +1019,33 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -961,6 +1055,19 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1049,10 +1156,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1099,9 +1207,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1111,8 +1216,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1121,8 +1248,131 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1137,7 +1387,13 @@
     <xdr:ext cx="2856900" cy="618995"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1172,7 +1428,13 @@
     <xdr:ext cx="1428750" cy="504825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1207,7 +1469,13 @@
     <xdr:ext cx="10467975" cy="6762750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1232,6 +1500,1241 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14337" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14337"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14338" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14338"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14339" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14339"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14340" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14340"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14341" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14341"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14342" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14342"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14343" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14343"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14344" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14344"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14345" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14345"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14346" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14346"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14347" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14347"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14348" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14348"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14349" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14349"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14350" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14350"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14351" name="Check Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14351"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14352" name="Check Box 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14352"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14353" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14353"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14354" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14354"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14355" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14355"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14356" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14356"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14357" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14357"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14358" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14358"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14359" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14359"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14360" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14360"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14361" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14361"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14362" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14362"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14363" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14363"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14364" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14364"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14365" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14365"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14366" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14366"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1524,7 +3027,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1649,146 +3154,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="32" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:7">
-      <c r="C3" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" ht="25.5">
-      <c r="C5" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" ht="25.5">
-      <c r="C6" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" ht="25.5">
-      <c r="C7" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="25.5">
-      <c r="C8" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" ht="25.5">
-      <c r="C9" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="D5:D9" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G7"/>
   <sheetViews>
@@ -1804,15 +3169,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
@@ -1833,53 +3198,53 @@
     </row>
     <row r="5" spans="3:7" ht="25.5">
       <c r="C5" s="2" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="25.5">
       <c r="C6" s="2" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="25.5">
       <c r="C7" s="2" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -1894,9 +3259,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7">
+      <c r="C3" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="25.5">
+      <c r="C5" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="25.5">
+      <c r="C6" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="25.5">
+      <c r="C7" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="25.5">
+      <c r="C8" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="25.5">
+      <c r="C9" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D5:D9" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G12"/>
+  <dimension ref="C3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1910,15 +3417,123 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="25.5">
+      <c r="C5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="25.5">
+      <c r="C6" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="25.5">
+      <c r="C7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D5:D7" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7">
+      <c r="C3" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
@@ -2085,7 +3700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
@@ -2135,7 +3750,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2144,10 +3761,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
@@ -2356,11 +3973,792 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="75.5703125" customWidth="1"/>
+    <col min="5" max="5" width="71.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="O1" s="20"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="38.25">
+      <c r="A10" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14337" r:id="rId4" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14338" r:id="rId5" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14339" r:id="rId6" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14340" r:id="rId7" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14341" r:id="rId8" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14342" r:id="rId9" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14343" r:id="rId10" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14344" r:id="rId11" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14345" r:id="rId12" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14346" r:id="rId13" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14347" r:id="rId14" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14348" r:id="rId15" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14349" r:id="rId16" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14350" r:id="rId17" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14351" r:id="rId18" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14352" r:id="rId19" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14353" r:id="rId20" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14354" r:id="rId21" name="Check Box 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14355" r:id="rId22" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14356" r:id="rId23" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14357" r:id="rId24" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14358" r:id="rId25" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14359" r:id="rId26" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14360" r:id="rId27" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14361" r:id="rId28" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14362" r:id="rId29" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14363" r:id="rId30" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14364" r:id="rId31" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14365" r:id="rId32" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="14366" r:id="rId33" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R20"/>
+  <dimension ref="B2:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView topLeftCell="M13" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2371,15 +4769,16 @@
     <col min="9" max="10" width="5" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="75" customWidth="1"/>
+    <col min="13" max="13" width="37.85546875" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="15" max="15" width="30" customWidth="1"/>
-    <col min="16" max="16" width="34.5703125" customWidth="1"/>
-    <col min="17" max="17" width="30" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="16" max="16" width="80" customWidth="1"/>
+    <col min="17" max="18" width="34.5703125" customWidth="1"/>
+    <col min="19" max="19" width="30" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:20">
       <c r="B2" s="5" t="s">
         <v>55</v>
       </c>
@@ -2415,14 +4814,20 @@
       <c r="P2" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="25.5">
+    <row r="3" spans="2:20" ht="38.25">
       <c r="B3" s="8" t="s">
         <v>70</v>
       </c>
@@ -2447,13 +4852,15 @@
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="2:18">
+      <c r="P3" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="2:20" ht="127.5">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>75</v>
@@ -2484,13 +4891,19 @@
       <c r="O4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="P4" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="2:18" ht="25.5">
+      <c r="P4" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="2:20">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>83</v>
@@ -2499,58 +4912,66 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="16"/>
+      <c r="N5" s="27"/>
       <c r="O5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P5" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="16"/>
-    </row>
-    <row r="6" spans="2:18" ht="25.5">
+      <c r="P5" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="27"/>
+    </row>
+    <row r="6" spans="2:20" ht="30" customHeight="1">
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
       <c r="O6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P6" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="16"/>
-    </row>
-    <row r="7" spans="2:18" ht="38.25">
+      <c r="P6" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="27"/>
+    </row>
+    <row r="7" spans="2:20" ht="38.25">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
         <v>90</v>
@@ -2581,13 +5002,15 @@
         <v>95</v>
       </c>
       <c r="O7" s="2"/>
-      <c r="P7" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="2:18" ht="38.25">
+      <c r="P7" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="2:20" ht="38.25">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
         <v>96</v>
@@ -2620,13 +5043,17 @@
       <c r="O8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P8" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="2:18" ht="38.25">
+      <c r="P8" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="2:20" ht="38.25">
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
         <v>102</v>
@@ -2659,13 +5086,17 @@
       <c r="O9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="P9" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="2:18" ht="38.25">
+      <c r="P9" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="2:20" ht="38.25">
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
         <v>108</v>
@@ -2692,17 +5123,19 @@
       <c r="M10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="17" t="s">
         <v>113</v>
       </c>
       <c r="O10" s="2"/>
-      <c r="P10" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="2:18" ht="38.25">
+      <c r="P10" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="2:20" ht="38.25">
       <c r="B11" s="11"/>
       <c r="C11" s="12" t="s">
         <v>114</v>
@@ -2733,13 +5166,15 @@
         <v>118</v>
       </c>
       <c r="O11" s="2"/>
-      <c r="P11" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="2:18" ht="38.25">
+      <c r="P11" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="2:20" ht="38.25">
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
         <v>119</v>
@@ -2770,13 +5205,15 @@
         <v>123</v>
       </c>
       <c r="O12" s="2"/>
-      <c r="P12" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="2:18" ht="25.5">
+      <c r="P12" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="2:20" ht="25.5">
       <c r="B13" s="11"/>
       <c r="C13" s="12" t="s">
         <v>124</v>
@@ -2809,13 +5246,17 @@
       <c r="O13" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="P13" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="2:18" ht="38.25">
+      <c r="P13" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="18"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="2:20" ht="38.25">
       <c r="B14" s="11"/>
       <c r="C14" s="12" t="s">
         <v>130</v>
@@ -2848,13 +5289,17 @@
       <c r="O14" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="P14" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="2:18">
+      <c r="P14" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="18"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="2:20">
       <c r="B15" s="11"/>
       <c r="C15" s="12" t="s">
         <v>136</v>
@@ -2883,13 +5328,15 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="19" t="s">
-        <v>278</v>
+      <c r="P15" s="25" t="s">
+        <v>307</v>
       </c>
       <c r="Q15" s="18"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="2:18" ht="25.5">
+      <c r="R15" s="18"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="2:20" ht="25.5">
       <c r="B16" s="11"/>
       <c r="C16" s="12" t="s">
         <v>141</v>
@@ -2918,13 +5365,15 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="2:18" ht="38.25">
+      <c r="P16" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="2:20" ht="63.75">
       <c r="B17" s="11"/>
       <c r="C17" s="12" t="s">
         <v>145</v>
@@ -2955,13 +5404,15 @@
       <c r="O17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="P17" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="2:18">
+      <c r="P17" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="2:20" ht="63.75">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -2990,11 +5441,17 @@
       <c r="O18" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="2:18">
+      <c r="P18" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="2:20">
       <c r="B19" s="11"/>
       <c r="C19" s="12" t="s">
         <v>157</v>
@@ -3023,13 +5480,15 @@
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="2:18" ht="25.5">
+      <c r="P19" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="2:20" ht="25.5">
       <c r="B20" s="11"/>
       <c r="C20" s="12" t="s">
         <v>163</v>
@@ -3060,17 +5519,19 @@
         <v>168</v>
       </c>
       <c r="O20" s="2"/>
-      <c r="P20" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="2"/>
+      <c r="P20" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="T5:T6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
@@ -3096,62 +5557,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:5">
-      <c r="C3" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5">
-      <c r="C4" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" ht="38.25">
-      <c r="C5" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="D5" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E5"/>
@@ -3166,12 +5571,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:5">
-      <c r="C3" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>176</v>
+      <c r="C3" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="3:5">
@@ -3185,9 +5590,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="3:5">
+    <row r="5" spans="3:5" ht="38.25">
       <c r="C5" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>174</v>
@@ -3209,6 +5614,62 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5">
+      <c r="C3" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D5" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G9"/>
   <sheetViews>
@@ -3224,15 +5685,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
@@ -3344,112 +5805,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D5:D9" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="32" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:7">
-      <c r="C3" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7">
-      <c r="C5" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7">
-      <c r="C6" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="C7" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="D5:D7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3470,15 +5825,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
@@ -3497,55 +5852,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="25.5">
+    <row r="5" spans="3:7">
       <c r="C5" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" ht="25.5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
       <c r="C6" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" ht="25.5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
       <c r="C7" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
